--- a/c++/studio/Utility_App/ScoreTest/test_cases.xlsx
+++ b/c++/studio/Utility_App/ScoreTest/test_cases.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="25875" windowHeight="13095"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="19440" windowHeight="13095"/>
   </bookViews>
   <sheets>
     <sheet name="3-0" sheetId="1" r:id="rId1"/>
@@ -43,13 +43,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -78,7 +83,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -87,10 +92,15 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -184,25 +194,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="48271744"/>
-        <c:axId val="48273280"/>
+        <c:axId val="61252352"/>
+        <c:axId val="61253888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="48271744"/>
+        <c:axId val="61252352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48273280"/>
+        <c:crossAx val="61253888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="48273280"/>
+        <c:axId val="61253888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -210,20 +220,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48271744"/>
+        <c:crossAx val="61252352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -231,10 +241,15 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -328,25 +343,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="54226944"/>
-        <c:axId val="54228480"/>
+        <c:axId val="62400768"/>
+        <c:axId val="62410752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="54226944"/>
+        <c:axId val="62400768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54228480"/>
+        <c:crossAx val="62410752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="54228480"/>
+        <c:axId val="62410752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -354,20 +369,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54226944"/>
+        <c:crossAx val="62400768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -375,13 +390,28 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:title>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.9029850746268662E-2"/>
+          <c:y val="0.2153846153846154"/>
+          <c:w val="0.70149253731343286"/>
+          <c:h val="0.65384615384615385"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -472,25 +502,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="154556288"/>
-        <c:axId val="162956800"/>
+        <c:axId val="62422400"/>
+        <c:axId val="62436480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="154556288"/>
+        <c:axId val="62422400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162956800"/>
+        <c:crossAx val="62436480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="162956800"/>
+        <c:axId val="62436480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -498,20 +528,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154556288"/>
+        <c:crossAx val="62422400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -519,10 +549,15 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -616,25 +651,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="71293184"/>
-        <c:axId val="71316224"/>
+        <c:axId val="64893696"/>
+        <c:axId val="64895232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="71293184"/>
+        <c:axId val="64893696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71316224"/>
+        <c:crossAx val="64895232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71316224"/>
+        <c:axId val="64895232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -642,20 +677,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71293184"/>
+        <c:crossAx val="64893696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -678,8 +713,10 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="1025" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -708,8 +745,10 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="1026" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -738,8 +777,10 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="1027" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -768,8 +809,10 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="1028" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1077,11 +1120,11 @@
       <selection activeCell="M58" sqref="M58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.75" customWidth="1"/>
+    <col min="3" max="3" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1545,6 +1588,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -1559,7 +1603,7 @@
       <selection activeCell="A2" sqref="A2:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="1:3">
       <c r="A2">
@@ -1661,6 +1705,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1671,8 +1716,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>